--- a/secondseqtion/is_gorecek_bilet/firma_sube_biletkesen.xlsx
+++ b/secondseqtion/is_gorecek_bilet/firma_sube_biletkesen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ömer Can Bozkurt\Desktop\github\ticketDatabase\secondseqtion\is_gorecek_bilet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A36298-3301-4756-B6AD-716AE6B435A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674E592-0462-4695-9D2A-A6FB3A826A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +378,7 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>883</v>
@@ -389,7 +389,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>884</v>
@@ -400,7 +400,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>885</v>
@@ -411,7 +411,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>886</v>
@@ -422,7 +422,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>887</v>
@@ -433,7 +433,7 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>888</v>
@@ -444,7 +444,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>889</v>
@@ -455,7 +455,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>890</v>
@@ -466,7 +466,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>891</v>
@@ -477,7 +477,7 @@
         <v>41</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>892</v>
@@ -488,7 +488,7 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>893</v>
@@ -499,7 +499,7 @@
         <v>41</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>894</v>
@@ -510,7 +510,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>895</v>
@@ -521,7 +521,7 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>896</v>
@@ -532,7 +532,7 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>897</v>
@@ -543,7 +543,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>898</v>
@@ -554,7 +554,7 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>899</v>
@@ -565,7 +565,7 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>900</v>
@@ -576,7 +576,7 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>901</v>
@@ -587,7 +587,7 @@
         <v>42</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>902</v>
@@ -598,7 +598,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>903</v>
@@ -609,7 +609,7 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>904</v>
@@ -620,7 +620,7 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>905</v>
@@ -631,7 +631,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>906</v>
@@ -642,7 +642,7 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>907</v>
@@ -653,7 +653,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>908</v>
@@ -664,7 +664,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>909</v>
@@ -675,7 +675,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>910</v>
@@ -686,7 +686,7 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>911</v>
@@ -697,7 +697,7 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>912</v>
@@ -708,7 +708,7 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>913</v>
@@ -719,7 +719,7 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>914</v>
@@ -730,7 +730,7 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>915</v>
@@ -741,7 +741,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>916</v>
@@ -752,7 +752,7 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>917</v>
@@ -763,7 +763,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>918</v>
@@ -774,7 +774,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>919</v>
@@ -785,7 +785,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>920</v>
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>921</v>
@@ -807,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>922</v>
@@ -818,7 +818,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>923</v>
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>924</v>
@@ -840,7 +840,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>925</v>
@@ -851,7 +851,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>926</v>
@@ -862,7 +862,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>927</v>
@@ -873,7 +873,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>928</v>
@@ -884,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>929</v>
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>930</v>
@@ -906,7 +906,7 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>931</v>
@@ -917,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B51">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>932</v>
@@ -928,7 +928,7 @@
         <v>45</v>
       </c>
       <c r="B52">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>933</v>
@@ -939,7 +939,7 @@
         <v>45</v>
       </c>
       <c r="B53">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>934</v>
@@ -950,7 +950,7 @@
         <v>45</v>
       </c>
       <c r="B54">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>935</v>
@@ -961,7 +961,7 @@
         <v>45</v>
       </c>
       <c r="B55">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C55">
         <v>936</v>
@@ -972,7 +972,7 @@
         <v>46</v>
       </c>
       <c r="B56">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>937</v>
@@ -983,7 +983,7 @@
         <v>46</v>
       </c>
       <c r="B57">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>938</v>
@@ -994,7 +994,7 @@
         <v>46</v>
       </c>
       <c r="B58">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C58">
         <v>939</v>
@@ -1005,7 +1005,7 @@
         <v>46</v>
       </c>
       <c r="B59">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C59">
         <v>940</v>
@@ -1016,7 +1016,7 @@
         <v>46</v>
       </c>
       <c r="B60">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C60">
         <v>941</v>
@@ -1027,7 +1027,7 @@
         <v>46</v>
       </c>
       <c r="B61">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C61">
         <v>942</v>
@@ -1038,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B62">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C62">
         <v>943</v>
@@ -1049,7 +1049,7 @@
         <v>46</v>
       </c>
       <c r="B63">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C63">
         <v>944</v>
@@ -1060,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C64">
         <v>945</v>
@@ -1071,7 +1071,7 @@
         <v>47</v>
       </c>
       <c r="B65">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>946</v>
@@ -1082,7 +1082,7 @@
         <v>47</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>947</v>
@@ -1093,7 +1093,7 @@
         <v>47</v>
       </c>
       <c r="B67">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>948</v>
@@ -1104,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="B68">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C68">
         <v>949</v>
@@ -1115,7 +1115,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <v>950</v>
@@ -1126,7 +1126,7 @@
         <v>47</v>
       </c>
       <c r="B70">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C70">
         <v>951</v>
@@ -1137,7 +1137,7 @@
         <v>47</v>
       </c>
       <c r="B71">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>952</v>
@@ -1148,7 +1148,7 @@
         <v>47</v>
       </c>
       <c r="B72">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>953</v>
@@ -1159,7 +1159,7 @@
         <v>47</v>
       </c>
       <c r="B73">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C73">
         <v>954</v>
@@ -1170,7 +1170,7 @@
         <v>48</v>
       </c>
       <c r="B74">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>955</v>
@@ -1181,7 +1181,7 @@
         <v>48</v>
       </c>
       <c r="B75">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C75">
         <v>956</v>
@@ -1192,7 +1192,7 @@
         <v>48</v>
       </c>
       <c r="B76">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>957</v>
@@ -1203,7 +1203,7 @@
         <v>48</v>
       </c>
       <c r="B77">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C77">
         <v>958</v>
@@ -1214,7 +1214,7 @@
         <v>48</v>
       </c>
       <c r="B78">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>959</v>
@@ -1225,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="B79">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C79">
         <v>960</v>
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="B80">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C80">
         <v>961</v>
@@ -1247,7 +1247,7 @@
         <v>48</v>
       </c>
       <c r="B81">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C81">
         <v>962</v>
@@ -1258,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C82">
         <v>963</v>
@@ -1269,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="B83">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>964</v>
@@ -1280,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="B84">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C84">
         <v>965</v>
@@ -1291,7 +1291,7 @@
         <v>49</v>
       </c>
       <c r="B85">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C85">
         <v>966</v>
@@ -1302,7 +1302,7 @@
         <v>49</v>
       </c>
       <c r="B86">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C86">
         <v>967</v>
@@ -1313,7 +1313,7 @@
         <v>49</v>
       </c>
       <c r="B87">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C87">
         <v>968</v>
@@ -1324,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="B88">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C88">
         <v>969</v>
@@ -1335,7 +1335,7 @@
         <v>49</v>
       </c>
       <c r="B89">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C89">
         <v>970</v>
@@ -1346,7 +1346,7 @@
         <v>49</v>
       </c>
       <c r="B90">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C90">
         <v>971</v>
@@ -1357,7 +1357,7 @@
         <v>49</v>
       </c>
       <c r="B91">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C91">
         <v>972</v>
